--- a/patient_data/patient_59.xlsx
+++ b/patient_data/patient_59.xlsx
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -616,19 +616,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -693,25 +693,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -770,25 +770,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -853,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -918,31 +918,31 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -954,16 +954,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1425,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1623,16 +1623,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
